--- a/Fananiel-Tools.tab/Dev.panel/Plankopf_Elektro.pushbutton/Elektroangaben_Plankopf_API.xlsx
+++ b/Fananiel-Tools.tab/Dev.panel/Plankopf_Elektro.pushbutton/Elektroangaben_Plankopf_API.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\F-KA-Temp\Temp Daniel\RevitAPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.foerster\AppData\Roaming\Github pyRevit\Fananiel-Tools.extension\Fananiel-Tools.tab\Dev.panel\Plankopf_Elektro.pushbutton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C06D017-6D69-4A1E-A1A0-E43BBE810B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B525B289-226D-4EEB-9579-E7EF18C8EB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37260" yWindow="8610" windowWidth="28740" windowHeight="15330" xr2:uid="{D34ED3BC-0FC2-46F7-8B55-513B2C92B22C}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="38610" windowHeight="20985" xr2:uid="{D34ED3BC-0FC2-46F7-8B55-513B2C92B22C}"/>
   </bookViews>
   <sheets>
     <sheet name="Elektroangaben_Plankopf_API" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="59">
   <si>
     <t>Aufzugstyp</t>
   </si>
@@ -134,12 +134,81 @@
   </si>
   <si>
     <t>1600-ODL-BT10-ES</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>FF1_K</t>
+  </si>
+  <si>
+    <t>FF2_K</t>
+  </si>
+  <si>
+    <t>FF1_GGW</t>
+  </si>
+  <si>
+    <t>FF2_GGW</t>
+  </si>
+  <si>
+    <t>F1_Plan</t>
+  </si>
+  <si>
+    <t>F2_Plan</t>
+  </si>
+  <si>
+    <t>F3_Plan</t>
+  </si>
+  <si>
+    <t>F4_Plan</t>
+  </si>
+  <si>
+    <t>F5_Plan</t>
+  </si>
+  <si>
+    <t>F8_Plan</t>
+  </si>
+  <si>
+    <t>F9_Plan</t>
+  </si>
+  <si>
+    <t>F10_Plan</t>
+  </si>
+  <si>
+    <t>F14_Plan</t>
+  </si>
+  <si>
+    <t>F15_Plan</t>
+  </si>
+  <si>
+    <t>F16_Plan</t>
+  </si>
+  <si>
+    <t>F17_Plan</t>
+  </si>
+  <si>
+    <t>F18_Plan</t>
+  </si>
+  <si>
+    <t>Personenzahl</t>
+  </si>
+  <si>
+    <t>kein Standard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="171" formatCode="#,##0.0\ &quot;kN&quot;"/>
+    <numFmt numFmtId="173" formatCode="#,##0.0\ &quot;KVA&quot;"/>
+    <numFmt numFmtId="175" formatCode="#,##0.0\ &quot;A&quot;"/>
+    <numFmt numFmtId="176" formatCode="#,##0\ &quot;W&quot;"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -276,7 +345,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,8 +525,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -572,6 +653,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -617,8 +770,52 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -994,767 +1191,2388 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64FA920-0D8B-4BA5-8879-E4D86AB611D4}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="14">
         <v>8.1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="15">
         <v>19.399999999999999</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="15">
         <v>32.200000000000003</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="15">
         <v>32</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="16">
         <v>1000</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I2" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J2" s="10">
+        <v>1</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="11">
+        <v>59.7</v>
+      </c>
+      <c r="S2" s="11">
+        <v>54.975240000000007</v>
+      </c>
+      <c r="T2" s="11">
+        <v>44.674740000000007</v>
+      </c>
+      <c r="U2" s="11">
+        <v>7.7</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="11">
+        <v>35.6</v>
+      </c>
+      <c r="X2" s="11">
+        <v>35.6</v>
+      </c>
+      <c r="Y2" s="11">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="17">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="14">
         <v>8.1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="15">
         <v>19.399999999999999</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="15">
         <v>32.200000000000003</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="15">
         <v>32</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="16">
         <v>1000</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I3" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J3" s="12">
+        <v>1</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="11">
+        <v>59.7</v>
+      </c>
+      <c r="S3" s="11">
+        <v>54.975240000000007</v>
+      </c>
+      <c r="T3" s="11">
+        <v>44.674740000000007</v>
+      </c>
+      <c r="U3" s="11">
+        <v>7.7</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="11">
+        <v>35.6</v>
+      </c>
+      <c r="X3" s="11">
+        <v>35.6</v>
+      </c>
+      <c r="Y3" s="11">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="17">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="14">
         <v>8.1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="15">
         <v>19.399999999999999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="15">
         <v>32.200000000000003</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="15">
         <v>32</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="16">
         <v>1000</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I4" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="13">
+        <v>59.7</v>
+      </c>
+      <c r="S4" s="13">
+        <v>54.975240000000007</v>
+      </c>
+      <c r="T4" s="13">
+        <v>44.674740000000007</v>
+      </c>
+      <c r="U4" s="13">
+        <v>7.7</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" s="13">
+        <v>35.6</v>
+      </c>
+      <c r="X4" s="13">
+        <v>35.6</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>23</v>
+      </c>
+      <c r="Z4" s="17">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="14">
         <v>8.1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="15">
         <v>19.399999999999999</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="15">
         <v>32.200000000000003</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="15">
         <v>32</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="16">
         <v>1000</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I5" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J5" s="10">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="11">
+        <v>59.7</v>
+      </c>
+      <c r="S5" s="11">
+        <v>54.975240000000007</v>
+      </c>
+      <c r="T5" s="11">
+        <v>44.674740000000007</v>
+      </c>
+      <c r="U5" s="11">
+        <v>7.7</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" s="11">
+        <v>35.6</v>
+      </c>
+      <c r="X5" s="11">
+        <v>35.6</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>23</v>
+      </c>
+      <c r="Z5" s="17">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="14">
         <v>7.8</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="15">
         <v>18.7</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="15">
         <v>30.9</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="15">
         <v>32</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="16">
         <v>810</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I6" s="12">
+        <v>1</v>
+      </c>
+      <c r="J6" s="12">
+        <v>1</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="13">
+        <v>59.3</v>
+      </c>
+      <c r="S6" s="13">
+        <v>54.661319999999996</v>
+      </c>
+      <c r="T6" s="13">
+        <v>44.851320000000001</v>
+      </c>
+      <c r="U6" s="13">
+        <v>7.6</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="W6" s="13">
+        <v>35.5</v>
+      </c>
+      <c r="X6" s="13">
+        <v>35.5</v>
+      </c>
+      <c r="Y6" s="13">
+        <v>23</v>
+      </c>
+      <c r="Z6" s="17">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="14">
         <v>7.8</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="15">
         <v>18.7</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="15">
         <v>30.9</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="15">
         <v>32</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="16">
         <v>810</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I7" s="10">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" s="11">
+        <v>59.3</v>
+      </c>
+      <c r="S7" s="11">
+        <v>54.661319999999996</v>
+      </c>
+      <c r="T7" s="11">
+        <v>44.851320000000001</v>
+      </c>
+      <c r="U7" s="11">
+        <v>7.6</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="W7" s="11">
+        <v>35.5</v>
+      </c>
+      <c r="X7" s="11">
+        <v>35.5</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>23</v>
+      </c>
+      <c r="Z7" s="17">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="14">
         <v>7.8</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="15">
         <v>18.7</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="15">
         <v>30.9</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="15">
         <v>32</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="16">
         <v>810</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10">
+        <v>1</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" s="11">
+        <v>59.3</v>
+      </c>
+      <c r="S8" s="11">
+        <v>54.661319999999996</v>
+      </c>
+      <c r="T8" s="11">
+        <v>44.851320000000001</v>
+      </c>
+      <c r="U8" s="11">
+        <v>7.6</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="W8" s="11">
+        <v>35.5</v>
+      </c>
+      <c r="X8" s="11">
+        <v>35.5</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>23</v>
+      </c>
+      <c r="Z8" s="17">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="14">
         <v>7.8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="15">
         <v>18.7</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="15">
         <v>30.9</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="15">
         <v>32</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="16">
         <v>810</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
+      <c r="J9" s="10">
+        <v>1</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="11">
+        <v>59.3</v>
+      </c>
+      <c r="S9" s="11">
+        <v>54.661319999999996</v>
+      </c>
+      <c r="T9" s="11">
+        <v>44.851320000000001</v>
+      </c>
+      <c r="U9" s="11">
+        <v>7.6</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="W9" s="11">
+        <v>35.5</v>
+      </c>
+      <c r="X9" s="11">
+        <v>35.5</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>23</v>
+      </c>
+      <c r="Z9" s="17">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="14">
         <v>5.9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="15">
         <v>15.2</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="15">
         <v>20.399999999999999</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="15">
         <v>25</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="16">
         <v>680</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I10" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="M10" s="11">
+        <v>15.2</v>
+      </c>
+      <c r="N10" s="10">
+        <v>22.8</v>
+      </c>
+      <c r="O10" s="10">
+        <v>9</v>
+      </c>
+      <c r="P10" s="11">
+        <v>7.7</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>8.6</v>
+      </c>
+      <c r="R10" s="11">
+        <v>22.2</v>
+      </c>
+      <c r="S10" s="11">
+        <v>42.104520000000001</v>
+      </c>
+      <c r="T10" s="11">
+        <v>35.482770000000002</v>
+      </c>
+      <c r="U10" s="11">
+        <v>7.2</v>
+      </c>
+      <c r="V10" s="11">
+        <v>14.2</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="X10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y10" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="Z10" s="18"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="14">
         <v>5.9</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="15">
         <v>15.2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="15">
         <v>20.399999999999999</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="15">
         <v>25</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="16">
         <v>640</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I11" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="M11" s="11">
+        <v>17.5</v>
+      </c>
+      <c r="N11" s="10">
+        <v>26.3</v>
+      </c>
+      <c r="O11" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P11" s="11">
+        <v>5.4</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>10</v>
+      </c>
+      <c r="R11" s="11">
+        <v>22.2</v>
+      </c>
+      <c r="S11" s="11">
+        <v>42.104520000000001</v>
+      </c>
+      <c r="T11" s="11">
+        <v>35.482770000000002</v>
+      </c>
+      <c r="U11" s="11">
+        <v>5</v>
+      </c>
+      <c r="V11" s="11">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="X11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="Z11" s="18"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="14">
         <v>5.9</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="15">
         <v>15.2</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="15">
         <v>20.399999999999999</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="15">
         <v>25</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="16">
         <v>640</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I12" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="M12" s="11">
+        <v>15.8</v>
+      </c>
+      <c r="N12" s="10">
+        <v>26</v>
+      </c>
+      <c r="O12" s="11">
+        <v>6.3</v>
+      </c>
+      <c r="P12" s="11">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>8.4</v>
+      </c>
+      <c r="R12" s="11">
+        <v>22.2</v>
+      </c>
+      <c r="S12" s="11">
+        <v>42.104520000000001</v>
+      </c>
+      <c r="T12" s="11">
+        <v>35.482770000000002</v>
+      </c>
+      <c r="U12" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="V12" s="11">
+        <v>16</v>
+      </c>
+      <c r="W12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y12" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="Z12" s="18"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="14">
         <v>5.9</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="15">
         <v>15.2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="15">
         <v>20.399999999999999</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="15">
         <v>25</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="16">
         <v>640</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I13" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="M13" s="11">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="N13" s="10">
+        <v>26</v>
+      </c>
+      <c r="O13" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="P13" s="11">
+        <v>6.2</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>10.1</v>
+      </c>
+      <c r="R13" s="11">
+        <v>22.2</v>
+      </c>
+      <c r="S13" s="11">
+        <v>42.104520000000001</v>
+      </c>
+      <c r="T13" s="11">
+        <v>35.482770000000002</v>
+      </c>
+      <c r="U13" s="11">
+        <v>5.2</v>
+      </c>
+      <c r="V13" s="11">
+        <v>16.2</v>
+      </c>
+      <c r="W13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="X13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="Z13" s="18"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="14">
         <v>5.6</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="15">
         <v>14.5</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="15">
         <v>19.5</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="15">
         <v>25</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="16">
         <v>640</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I14" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="M14" s="11">
+        <v>15.4</v>
+      </c>
+      <c r="N14" s="10">
+        <v>7.7</v>
+      </c>
+      <c r="O14" s="11">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="P14" s="11">
+        <v>23.1</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="R14" s="11">
+        <v>22.3</v>
+      </c>
+      <c r="S14" s="11">
+        <v>42.339959999999998</v>
+      </c>
+      <c r="T14" s="11">
+        <v>36.159660000000002</v>
+      </c>
+      <c r="U14" s="11">
+        <v>7.2</v>
+      </c>
+      <c r="V14" s="11">
+        <v>14.2</v>
+      </c>
+      <c r="W14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="X14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="Z14" s="18"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="14">
         <v>5.6</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="15">
         <v>14.5</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="15">
         <v>19.5</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="15">
         <v>25</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="16">
         <v>640</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I15" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="M15" s="11">
+        <v>17.7</v>
+      </c>
+      <c r="N15" s="10">
+        <v>26.6</v>
+      </c>
+      <c r="O15" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="P15" s="11">
+        <v>5.4</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>10.1</v>
+      </c>
+      <c r="R15" s="11">
+        <v>22.3</v>
+      </c>
+      <c r="S15" s="11">
+        <v>42.339959999999998</v>
+      </c>
+      <c r="T15" s="11">
+        <v>36.159660000000002</v>
+      </c>
+      <c r="U15" s="11">
+        <v>5.4</v>
+      </c>
+      <c r="V15" s="11">
+        <v>16.2</v>
+      </c>
+      <c r="W15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="Z15" s="18"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="14">
         <v>5.6</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="15">
         <v>14.5</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="15">
         <v>19.5</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="15">
         <v>25</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="16">
         <v>640</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I16" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="M16" s="11">
+        <v>16</v>
+      </c>
+      <c r="N16" s="10">
+        <v>25.8</v>
+      </c>
+      <c r="O16" s="11">
+        <v>6.9</v>
+      </c>
+      <c r="P16" s="11">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>8.6</v>
+      </c>
+      <c r="R16" s="11">
+        <v>22.3</v>
+      </c>
+      <c r="S16" s="11">
+        <v>42.339959999999998</v>
+      </c>
+      <c r="T16" s="11">
+        <v>36.159660000000002</v>
+      </c>
+      <c r="U16" s="11">
+        <v>5.4</v>
+      </c>
+      <c r="V16" s="11">
+        <v>16</v>
+      </c>
+      <c r="W16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="X16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y16" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="Z16" s="18"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="14">
         <v>5.6</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="15">
         <v>14.5</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="15">
         <v>19.5</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="15">
         <v>25</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="16">
         <v>640</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I17" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="J17" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="M17" s="11">
+        <v>16.8</v>
+      </c>
+      <c r="N17" s="10">
+        <v>26</v>
+      </c>
+      <c r="O17" s="11">
+        <v>5.2</v>
+      </c>
+      <c r="P17" s="11">
+        <v>6.2</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>10.1</v>
+      </c>
+      <c r="R17" s="11">
+        <v>22.3</v>
+      </c>
+      <c r="S17" s="11">
+        <v>42.339959999999998</v>
+      </c>
+      <c r="T17" s="11">
+        <v>36.159660000000002</v>
+      </c>
+      <c r="U17" s="11">
+        <v>5.4</v>
+      </c>
+      <c r="V17" s="11">
+        <v>16</v>
+      </c>
+      <c r="W17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="X17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y17" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="Z17" s="18"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="14">
         <v>10.4</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="15">
         <v>23.8</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="15">
         <v>37.4</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="15">
         <v>40</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="16">
         <v>1340</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I18" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="J18" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="L18" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M18" s="11">
+        <v>41.4</v>
+      </c>
+      <c r="N18" s="10">
+        <v>37.4</v>
+      </c>
+      <c r="O18" s="11">
+        <v>25</v>
+      </c>
+      <c r="P18" s="11">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>11.8</v>
+      </c>
+      <c r="R18" s="11">
+        <v>33.6</v>
+      </c>
+      <c r="S18" s="11">
+        <v>64.981440000000006</v>
+      </c>
+      <c r="T18" s="11">
+        <v>51.247440000000005</v>
+      </c>
+      <c r="U18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="V18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="W18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="X18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y18" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="Z18" s="18"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="14">
         <v>10.4</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="15">
         <v>23.8</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="15">
         <v>37.4</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="15">
         <v>40</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="16">
         <v>1340</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I19" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="J19" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M19" s="11">
+        <v>34.4</v>
+      </c>
+      <c r="N19" s="10">
+        <v>26.2</v>
+      </c>
+      <c r="O19" s="11">
+        <v>9.4</v>
+      </c>
+      <c r="P19" s="11">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="R19" s="11">
+        <v>33.6</v>
+      </c>
+      <c r="S19" s="11">
+        <v>64.981440000000006</v>
+      </c>
+      <c r="T19" s="11">
+        <v>51.247440000000005</v>
+      </c>
+      <c r="U19" s="11">
+        <v>20.6</v>
+      </c>
+      <c r="V19" s="11">
+        <v>12.6</v>
+      </c>
+      <c r="W19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="X19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y19" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="Z19" s="18"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="14">
         <v>10.4</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="15">
         <v>23.8</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="15">
         <v>37.4</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="15">
         <v>40</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="16">
         <v>1340</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I20" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="J20" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="K20" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="L20" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M20" s="11">
+        <v>39.6</v>
+      </c>
+      <c r="N20" s="10">
+        <v>34.4</v>
+      </c>
+      <c r="O20" s="11">
+        <v>27.5</v>
+      </c>
+      <c r="P20" s="11">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>12.2</v>
+      </c>
+      <c r="R20" s="11">
+        <v>33.6</v>
+      </c>
+      <c r="S20" s="11">
+        <v>64.981440000000006</v>
+      </c>
+      <c r="T20" s="11">
+        <v>51.247440000000005</v>
+      </c>
+      <c r="U20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="V20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="W20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="X20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y20" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="Z20" s="18"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="14">
         <v>10.4</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="15">
         <v>23.8</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="15">
         <v>37.5</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="15">
         <v>40</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="16">
         <v>1340</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I21" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="J21" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M21" s="11">
+        <v>41.8</v>
+      </c>
+      <c r="N21" s="10">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="O21" s="11">
+        <v>25.3</v>
+      </c>
+      <c r="P21" s="11">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>11.9</v>
+      </c>
+      <c r="R21" s="11">
+        <v>33.9</v>
+      </c>
+      <c r="S21" s="11">
+        <v>65.687760000000011</v>
+      </c>
+      <c r="T21" s="11">
+        <v>51.953760000000003</v>
+      </c>
+      <c r="U21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="V21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="W21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="X21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y21" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="Z21" s="18"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="14">
         <v>10.4</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="15">
         <v>23.8</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="15">
         <v>37.5</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="15">
         <v>40</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="16">
         <v>1340</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I22" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="J22" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="L22" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M22" s="11">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="N22" s="10">
+        <v>26.5</v>
+      </c>
+      <c r="O22" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="P22" s="11">
+        <v>19.2</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>8.4</v>
+      </c>
+      <c r="R22" s="11">
+        <v>33.9</v>
+      </c>
+      <c r="S22" s="11">
+        <v>65.687760000000011</v>
+      </c>
+      <c r="T22" s="11">
+        <v>51.953760000000003</v>
+      </c>
+      <c r="U22" s="11">
+        <v>21</v>
+      </c>
+      <c r="V22" s="11">
+        <v>12.8</v>
+      </c>
+      <c r="W22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="X22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y22" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="Z22" s="18"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="14">
         <v>10.4</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="15">
         <v>23.8</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="15">
         <v>37.5</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="15">
         <v>40</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="16">
         <v>1340</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I23" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="J23" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M23" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="N23" s="11">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="O23" s="11">
+        <v>27.8</v>
+      </c>
+      <c r="P23" s="11">
+        <v>19.3</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>12.3</v>
+      </c>
+      <c r="R23" s="11">
+        <v>33.9</v>
+      </c>
+      <c r="S23" s="11">
+        <v>65.687760000000011</v>
+      </c>
+      <c r="T23" s="11">
+        <v>51.953760000000003</v>
+      </c>
+      <c r="U23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="V23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="W23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="X23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y23" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="Z23" s="18"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="14">
         <v>12.7</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="15">
         <v>27.9</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="15">
         <v>41.4</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="15">
         <v>40</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="16">
         <v>1680</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I24" s="13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J24" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="M24" s="11">
+        <v>43.5</v>
+      </c>
+      <c r="N24" s="10">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="O24" s="11">
+        <v>28.9</v>
+      </c>
+      <c r="P24" s="11">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="R24" s="11">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="S24" s="11">
+        <v>71.652240000000006</v>
+      </c>
+      <c r="T24" s="11">
+        <v>55.956240000000008</v>
+      </c>
+      <c r="U24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="V24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="W24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="X24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y24" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="Z24" s="18"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="14">
         <v>12.7</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="15">
         <v>27.9</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="15">
         <v>41.4</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="15">
         <v>40</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="16">
         <v>1680</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I25" s="13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J25" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="M25" s="11">
+        <v>43.5</v>
+      </c>
+      <c r="N25" s="10">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="O25" s="11">
+        <v>28.9</v>
+      </c>
+      <c r="P25" s="11">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="R25" s="11">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="S25" s="11">
+        <v>71.652240000000006</v>
+      </c>
+      <c r="T25" s="11">
+        <v>55.210680000000004</v>
+      </c>
+      <c r="U25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="V25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="W25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="X25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y25" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="Z25" s="18"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="14">
         <v>11.8</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="15">
         <v>26.6</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="15">
         <v>44.2</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="15">
         <v>40</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="16">
         <v>1540</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I26" s="13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J26" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="L26" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R26" s="11">
+        <v>77.8</v>
+      </c>
+      <c r="S26" s="11">
+        <v>71.652240000000006</v>
+      </c>
+      <c r="T26" s="11">
+        <v>54.720179999999999</v>
+      </c>
+      <c r="U26" s="11">
+        <v>10</v>
+      </c>
+      <c r="V26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="W26" s="11">
+        <v>44.9</v>
+      </c>
+      <c r="X26" s="11">
+        <v>44.9</v>
+      </c>
+      <c r="Y26" s="11">
+        <v>28.4</v>
+      </c>
+      <c r="Z26" s="18"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="14">
         <v>12.7</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="15">
         <v>27.9</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="15">
         <v>41.5</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="15">
         <v>40</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="16">
         <v>1680</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I27" s="13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J27" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="M27" s="11">
+        <v>43.8</v>
+      </c>
+      <c r="N27" s="10">
+        <v>39.5</v>
+      </c>
+      <c r="O27" s="11">
+        <v>29.2</v>
+      </c>
+      <c r="P27" s="11">
+        <v>20.3</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="R27" s="11">
+        <v>37.1</v>
+      </c>
+      <c r="S27" s="11">
+        <v>72.319320000000005</v>
+      </c>
+      <c r="T27" s="11">
+        <v>56.62332</v>
+      </c>
+      <c r="U27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="V27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="W27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="X27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y27" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="Z27" s="18"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="14">
         <v>12.7</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="15">
         <v>27.9</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="15">
         <v>41.5</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="15">
         <v>40</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="16">
         <v>1680</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I28" s="13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J28" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="M28" s="11">
+        <v>43.8</v>
+      </c>
+      <c r="N28" s="10">
+        <v>39.5</v>
+      </c>
+      <c r="O28" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P28" s="11">
+        <v>20.3</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="R28" s="11">
+        <v>37.1</v>
+      </c>
+      <c r="S28" s="11">
+        <v>72.319320000000005</v>
+      </c>
+      <c r="T28" s="11">
+        <v>56.62332</v>
+      </c>
+      <c r="U28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="V28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="W28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="X28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y28" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="Z28" s="18"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="14">
         <v>11.8</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="15">
         <v>26.6</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="15">
         <v>44.3</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="15">
         <v>40</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="16">
         <v>1540</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="I29" s="13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J29" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R29" s="11">
+        <v>77.2</v>
+      </c>
+      <c r="S29" s="11">
+        <v>72.319320000000005</v>
+      </c>
+      <c r="T29" s="11">
+        <v>56.62332</v>
+      </c>
+      <c r="U29" s="11">
+        <v>10</v>
+      </c>
+      <c r="V29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="W29" s="11">
+        <v>44.5</v>
+      </c>
+      <c r="X29" s="11">
+        <v>44.5</v>
+      </c>
+      <c r="Y29" s="11">
+        <v>28.1</v>
+      </c>
+      <c r="Z29" s="18"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>